--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_磐石组.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
+    <sheet name="配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.1 新特性|Fix Bug'!$A$1:$S$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.2 新特性|Fix Bug'!$A$1:$S$3</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -158,12 +159,88 @@
     <t>张浩</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>配置汇总</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>项目组</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>配置所属系统</t>
+  </si>
+  <si>
+    <t>配置文件名</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>配置的详细内容</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>开发人</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>技术经理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
+sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇伙伴微信公众号
+(AppID、AppSecret需要运维配置)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -240,8 +317,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +358,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -338,8 +442,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,8 +488,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,12 +595,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
@@ -841,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4957,4 +5142,1115 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="7" style="48" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="48" customWidth="1"/>
+    <col min="5" max="5" width="35" style="48" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="48" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="9" style="49" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="259" max="259" width="7" customWidth="1"/>
+    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="261" max="261" width="21" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.25" customWidth="1"/>
+    <col min="264" max="264" width="25.75" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="268" max="268" width="9" customWidth="1"/>
+    <col min="269" max="269" width="17.75" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="515" max="515" width="7" customWidth="1"/>
+    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="517" max="517" width="21" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.25" customWidth="1"/>
+    <col min="520" max="520" width="25.75" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="524" max="524" width="9" customWidth="1"/>
+    <col min="525" max="525" width="17.75" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="771" max="771" width="7" customWidth="1"/>
+    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="773" max="773" width="21" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.25" customWidth="1"/>
+    <col min="776" max="776" width="25.75" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="780" max="780" width="9" customWidth="1"/>
+    <col min="781" max="781" width="17.75" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="1027" max="1027" width="7" customWidth="1"/>
+    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1029" max="1029" width="21" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.25" customWidth="1"/>
+    <col min="1032" max="1032" width="25.75" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1036" max="1036" width="9" customWidth="1"/>
+    <col min="1037" max="1037" width="17.75" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1283" max="1283" width="7" customWidth="1"/>
+    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1285" max="1285" width="21" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.25" customWidth="1"/>
+    <col min="1288" max="1288" width="25.75" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1292" max="1292" width="9" customWidth="1"/>
+    <col min="1293" max="1293" width="17.75" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1539" max="1539" width="7" customWidth="1"/>
+    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1541" max="1541" width="21" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.25" customWidth="1"/>
+    <col min="1544" max="1544" width="25.75" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1548" max="1548" width="9" customWidth="1"/>
+    <col min="1549" max="1549" width="17.75" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1795" max="1795" width="7" customWidth="1"/>
+    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1797" max="1797" width="21" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.25" customWidth="1"/>
+    <col min="1800" max="1800" width="25.75" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1804" max="1804" width="9" customWidth="1"/>
+    <col min="1805" max="1805" width="17.75" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="2051" max="2051" width="7" customWidth="1"/>
+    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2053" max="2053" width="21" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.25" customWidth="1"/>
+    <col min="2056" max="2056" width="25.75" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2060" max="2060" width="9" customWidth="1"/>
+    <col min="2061" max="2061" width="17.75" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2307" max="2307" width="7" customWidth="1"/>
+    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2309" max="2309" width="21" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.25" customWidth="1"/>
+    <col min="2312" max="2312" width="25.75" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2316" max="2316" width="9" customWidth="1"/>
+    <col min="2317" max="2317" width="17.75" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2563" max="2563" width="7" customWidth="1"/>
+    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2565" max="2565" width="21" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.25" customWidth="1"/>
+    <col min="2568" max="2568" width="25.75" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2572" max="2572" width="9" customWidth="1"/>
+    <col min="2573" max="2573" width="17.75" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2819" max="2819" width="7" customWidth="1"/>
+    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2821" max="2821" width="21" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.25" customWidth="1"/>
+    <col min="2824" max="2824" width="25.75" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2828" max="2828" width="9" customWidth="1"/>
+    <col min="2829" max="2829" width="17.75" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="3075" max="3075" width="7" customWidth="1"/>
+    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3077" max="3077" width="21" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.25" customWidth="1"/>
+    <col min="3080" max="3080" width="25.75" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3084" max="3084" width="9" customWidth="1"/>
+    <col min="3085" max="3085" width="17.75" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3331" max="3331" width="7" customWidth="1"/>
+    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3333" max="3333" width="21" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.25" customWidth="1"/>
+    <col min="3336" max="3336" width="25.75" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3340" max="3340" width="9" customWidth="1"/>
+    <col min="3341" max="3341" width="17.75" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3587" max="3587" width="7" customWidth="1"/>
+    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3589" max="3589" width="21" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.25" customWidth="1"/>
+    <col min="3592" max="3592" width="25.75" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3596" max="3596" width="9" customWidth="1"/>
+    <col min="3597" max="3597" width="17.75" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3843" max="3843" width="7" customWidth="1"/>
+    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3845" max="3845" width="21" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.25" customWidth="1"/>
+    <col min="3848" max="3848" width="25.75" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3852" max="3852" width="9" customWidth="1"/>
+    <col min="3853" max="3853" width="17.75" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="4099" max="4099" width="7" customWidth="1"/>
+    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4101" max="4101" width="21" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.25" customWidth="1"/>
+    <col min="4104" max="4104" width="25.75" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4108" max="4108" width="9" customWidth="1"/>
+    <col min="4109" max="4109" width="17.75" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4355" max="4355" width="7" customWidth="1"/>
+    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4357" max="4357" width="21" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.25" customWidth="1"/>
+    <col min="4360" max="4360" width="25.75" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4364" max="4364" width="9" customWidth="1"/>
+    <col min="4365" max="4365" width="17.75" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4611" max="4611" width="7" customWidth="1"/>
+    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4613" max="4613" width="21" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.25" customWidth="1"/>
+    <col min="4616" max="4616" width="25.75" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4620" max="4620" width="9" customWidth="1"/>
+    <col min="4621" max="4621" width="17.75" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4867" max="4867" width="7" customWidth="1"/>
+    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4869" max="4869" width="21" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.25" customWidth="1"/>
+    <col min="4872" max="4872" width="25.75" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4876" max="4876" width="9" customWidth="1"/>
+    <col min="4877" max="4877" width="17.75" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="5123" max="5123" width="7" customWidth="1"/>
+    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5125" max="5125" width="21" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.25" customWidth="1"/>
+    <col min="5128" max="5128" width="25.75" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5132" max="5132" width="9" customWidth="1"/>
+    <col min="5133" max="5133" width="17.75" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5379" max="5379" width="7" customWidth="1"/>
+    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5381" max="5381" width="21" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.25" customWidth="1"/>
+    <col min="5384" max="5384" width="25.75" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5388" max="5388" width="9" customWidth="1"/>
+    <col min="5389" max="5389" width="17.75" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5635" max="5635" width="7" customWidth="1"/>
+    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5637" max="5637" width="21" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.25" customWidth="1"/>
+    <col min="5640" max="5640" width="25.75" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5644" max="5644" width="9" customWidth="1"/>
+    <col min="5645" max="5645" width="17.75" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5891" max="5891" width="7" customWidth="1"/>
+    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5893" max="5893" width="21" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.25" customWidth="1"/>
+    <col min="5896" max="5896" width="25.75" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5900" max="5900" width="9" customWidth="1"/>
+    <col min="5901" max="5901" width="17.75" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="6147" max="6147" width="7" customWidth="1"/>
+    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6149" max="6149" width="21" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.25" customWidth="1"/>
+    <col min="6152" max="6152" width="25.75" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6156" max="6156" width="9" customWidth="1"/>
+    <col min="6157" max="6157" width="17.75" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6403" max="6403" width="7" customWidth="1"/>
+    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6405" max="6405" width="21" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.25" customWidth="1"/>
+    <col min="6408" max="6408" width="25.75" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6412" max="6412" width="9" customWidth="1"/>
+    <col min="6413" max="6413" width="17.75" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6659" max="6659" width="7" customWidth="1"/>
+    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6661" max="6661" width="21" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.25" customWidth="1"/>
+    <col min="6664" max="6664" width="25.75" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6668" max="6668" width="9" customWidth="1"/>
+    <col min="6669" max="6669" width="17.75" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6915" max="6915" width="7" customWidth="1"/>
+    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6917" max="6917" width="21" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.25" customWidth="1"/>
+    <col min="6920" max="6920" width="25.75" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6924" max="6924" width="9" customWidth="1"/>
+    <col min="6925" max="6925" width="17.75" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="7171" max="7171" width="7" customWidth="1"/>
+    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7173" max="7173" width="21" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.25" customWidth="1"/>
+    <col min="7176" max="7176" width="25.75" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7180" max="7180" width="9" customWidth="1"/>
+    <col min="7181" max="7181" width="17.75" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7427" max="7427" width="7" customWidth="1"/>
+    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7429" max="7429" width="21" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.25" customWidth="1"/>
+    <col min="7432" max="7432" width="25.75" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7436" max="7436" width="9" customWidth="1"/>
+    <col min="7437" max="7437" width="17.75" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7683" max="7683" width="7" customWidth="1"/>
+    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7685" max="7685" width="21" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.25" customWidth="1"/>
+    <col min="7688" max="7688" width="25.75" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7692" max="7692" width="9" customWidth="1"/>
+    <col min="7693" max="7693" width="17.75" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7939" max="7939" width="7" customWidth="1"/>
+    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7941" max="7941" width="21" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.25" customWidth="1"/>
+    <col min="7944" max="7944" width="25.75" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7948" max="7948" width="9" customWidth="1"/>
+    <col min="7949" max="7949" width="17.75" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="8195" max="8195" width="7" customWidth="1"/>
+    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8197" max="8197" width="21" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.25" customWidth="1"/>
+    <col min="8200" max="8200" width="25.75" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8204" max="8204" width="9" customWidth="1"/>
+    <col min="8205" max="8205" width="17.75" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8451" max="8451" width="7" customWidth="1"/>
+    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8453" max="8453" width="21" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.25" customWidth="1"/>
+    <col min="8456" max="8456" width="25.75" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8460" max="8460" width="9" customWidth="1"/>
+    <col min="8461" max="8461" width="17.75" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8707" max="8707" width="7" customWidth="1"/>
+    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8709" max="8709" width="21" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.25" customWidth="1"/>
+    <col min="8712" max="8712" width="25.75" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8716" max="8716" width="9" customWidth="1"/>
+    <col min="8717" max="8717" width="17.75" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8963" max="8963" width="7" customWidth="1"/>
+    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8965" max="8965" width="21" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.25" customWidth="1"/>
+    <col min="8968" max="8968" width="25.75" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8972" max="8972" width="9" customWidth="1"/>
+    <col min="8973" max="8973" width="17.75" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="9219" max="9219" width="7" customWidth="1"/>
+    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9221" max="9221" width="21" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.25" customWidth="1"/>
+    <col min="9224" max="9224" width="25.75" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9228" max="9228" width="9" customWidth="1"/>
+    <col min="9229" max="9229" width="17.75" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9475" max="9475" width="7" customWidth="1"/>
+    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9477" max="9477" width="21" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.25" customWidth="1"/>
+    <col min="9480" max="9480" width="25.75" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9484" max="9484" width="9" customWidth="1"/>
+    <col min="9485" max="9485" width="17.75" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9731" max="9731" width="7" customWidth="1"/>
+    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9733" max="9733" width="21" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.25" customWidth="1"/>
+    <col min="9736" max="9736" width="25.75" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9740" max="9740" width="9" customWidth="1"/>
+    <col min="9741" max="9741" width="17.75" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9987" max="9987" width="7" customWidth="1"/>
+    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9989" max="9989" width="21" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.25" customWidth="1"/>
+    <col min="9992" max="9992" width="25.75" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9996" max="9996" width="9" customWidth="1"/>
+    <col min="9997" max="9997" width="17.75" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="10243" max="10243" width="7" customWidth="1"/>
+    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10245" max="10245" width="21" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.25" customWidth="1"/>
+    <col min="10248" max="10248" width="25.75" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10252" max="10252" width="9" customWidth="1"/>
+    <col min="10253" max="10253" width="17.75" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10499" max="10499" width="7" customWidth="1"/>
+    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10501" max="10501" width="21" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.25" customWidth="1"/>
+    <col min="10504" max="10504" width="25.75" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10508" max="10508" width="9" customWidth="1"/>
+    <col min="10509" max="10509" width="17.75" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10755" max="10755" width="7" customWidth="1"/>
+    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10757" max="10757" width="21" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.25" customWidth="1"/>
+    <col min="10760" max="10760" width="25.75" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10764" max="10764" width="9" customWidth="1"/>
+    <col min="10765" max="10765" width="17.75" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="11011" max="11011" width="7" customWidth="1"/>
+    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11013" max="11013" width="21" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.25" customWidth="1"/>
+    <col min="11016" max="11016" width="25.75" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11020" max="11020" width="9" customWidth="1"/>
+    <col min="11021" max="11021" width="17.75" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11267" max="11267" width="7" customWidth="1"/>
+    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11269" max="11269" width="21" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.25" customWidth="1"/>
+    <col min="11272" max="11272" width="25.75" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11276" max="11276" width="9" customWidth="1"/>
+    <col min="11277" max="11277" width="17.75" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11523" max="11523" width="7" customWidth="1"/>
+    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11525" max="11525" width="21" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.25" customWidth="1"/>
+    <col min="11528" max="11528" width="25.75" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11532" max="11532" width="9" customWidth="1"/>
+    <col min="11533" max="11533" width="17.75" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11779" max="11779" width="7" customWidth="1"/>
+    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11781" max="11781" width="21" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.25" customWidth="1"/>
+    <col min="11784" max="11784" width="25.75" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11788" max="11788" width="9" customWidth="1"/>
+    <col min="11789" max="11789" width="17.75" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="12035" max="12035" width="7" customWidth="1"/>
+    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12037" max="12037" width="21" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.25" customWidth="1"/>
+    <col min="12040" max="12040" width="25.75" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12044" max="12044" width="9" customWidth="1"/>
+    <col min="12045" max="12045" width="17.75" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12291" max="12291" width="7" customWidth="1"/>
+    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12293" max="12293" width="21" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.25" customWidth="1"/>
+    <col min="12296" max="12296" width="25.75" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12300" max="12300" width="9" customWidth="1"/>
+    <col min="12301" max="12301" width="17.75" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12547" max="12547" width="7" customWidth="1"/>
+    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12549" max="12549" width="21" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.25" customWidth="1"/>
+    <col min="12552" max="12552" width="25.75" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12556" max="12556" width="9" customWidth="1"/>
+    <col min="12557" max="12557" width="17.75" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12803" max="12803" width="7" customWidth="1"/>
+    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12805" max="12805" width="21" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.25" customWidth="1"/>
+    <col min="12808" max="12808" width="25.75" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12812" max="12812" width="9" customWidth="1"/>
+    <col min="12813" max="12813" width="17.75" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="13059" max="13059" width="7" customWidth="1"/>
+    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13061" max="13061" width="21" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.25" customWidth="1"/>
+    <col min="13064" max="13064" width="25.75" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13068" max="13068" width="9" customWidth="1"/>
+    <col min="13069" max="13069" width="17.75" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13315" max="13315" width="7" customWidth="1"/>
+    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13317" max="13317" width="21" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.25" customWidth="1"/>
+    <col min="13320" max="13320" width="25.75" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13324" max="13324" width="9" customWidth="1"/>
+    <col min="13325" max="13325" width="17.75" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13571" max="13571" width="7" customWidth="1"/>
+    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13573" max="13573" width="21" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.25" customWidth="1"/>
+    <col min="13576" max="13576" width="25.75" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13580" max="13580" width="9" customWidth="1"/>
+    <col min="13581" max="13581" width="17.75" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13827" max="13827" width="7" customWidth="1"/>
+    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13829" max="13829" width="21" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.25" customWidth="1"/>
+    <col min="13832" max="13832" width="25.75" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13836" max="13836" width="9" customWidth="1"/>
+    <col min="13837" max="13837" width="17.75" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="14083" max="14083" width="7" customWidth="1"/>
+    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14085" max="14085" width="21" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.25" customWidth="1"/>
+    <col min="14088" max="14088" width="25.75" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14092" max="14092" width="9" customWidth="1"/>
+    <col min="14093" max="14093" width="17.75" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14339" max="14339" width="7" customWidth="1"/>
+    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14341" max="14341" width="21" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.25" customWidth="1"/>
+    <col min="14344" max="14344" width="25.75" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14348" max="14348" width="9" customWidth="1"/>
+    <col min="14349" max="14349" width="17.75" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14595" max="14595" width="7" customWidth="1"/>
+    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14597" max="14597" width="21" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.25" customWidth="1"/>
+    <col min="14600" max="14600" width="25.75" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14604" max="14604" width="9" customWidth="1"/>
+    <col min="14605" max="14605" width="17.75" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14851" max="14851" width="7" customWidth="1"/>
+    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14853" max="14853" width="21" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.25" customWidth="1"/>
+    <col min="14856" max="14856" width="25.75" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14860" max="14860" width="9" customWidth="1"/>
+    <col min="14861" max="14861" width="17.75" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="15107" max="15107" width="7" customWidth="1"/>
+    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15109" max="15109" width="21" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.25" customWidth="1"/>
+    <col min="15112" max="15112" width="25.75" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15116" max="15116" width="9" customWidth="1"/>
+    <col min="15117" max="15117" width="17.75" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15363" max="15363" width="7" customWidth="1"/>
+    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15365" max="15365" width="21" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.25" customWidth="1"/>
+    <col min="15368" max="15368" width="25.75" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15372" max="15372" width="9" customWidth="1"/>
+    <col min="15373" max="15373" width="17.75" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15619" max="15619" width="7" customWidth="1"/>
+    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15621" max="15621" width="21" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.25" customWidth="1"/>
+    <col min="15624" max="15624" width="25.75" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15628" max="15628" width="9" customWidth="1"/>
+    <col min="15629" max="15629" width="17.75" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15875" max="15875" width="7" customWidth="1"/>
+    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15877" max="15877" width="21" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.25" customWidth="1"/>
+    <col min="15880" max="15880" width="25.75" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15884" max="15884" width="9" customWidth="1"/>
+    <col min="15885" max="15885" width="17.75" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="16131" max="16131" width="7" customWidth="1"/>
+    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16133" max="16133" width="21" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.25" customWidth="1"/>
+    <col min="16136" max="16136" width="25.75" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16140" max="16140" width="9" customWidth="1"/>
+    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+    </row>
+    <row r="3" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="42" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="43">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I3 I5:I1048576">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 F4:F13 JB4:JB13 SX4:SX13 ACT4:ACT13 AMP4:AMP13 AWL4:AWL13 BGH4:BGH13 BQD4:BQD13 BZZ4:BZZ13 CJV4:CJV13 CTR4:CTR13 DDN4:DDN13 DNJ4:DNJ13 DXF4:DXF13 EHB4:EHB13 EQX4:EQX13 FAT4:FAT13 FKP4:FKP13 FUL4:FUL13 GEH4:GEH13 GOD4:GOD13 GXZ4:GXZ13 HHV4:HHV13 HRR4:HRR13 IBN4:IBN13 ILJ4:ILJ13 IVF4:IVF13 JFB4:JFB13 JOX4:JOX13 JYT4:JYT13 KIP4:KIP13 KSL4:KSL13 LCH4:LCH13 LMD4:LMD13 LVZ4:LVZ13 MFV4:MFV13 MPR4:MPR13 MZN4:MZN13 NJJ4:NJJ13 NTF4:NTF13 ODB4:ODB13 OMX4:OMX13 OWT4:OWT13 PGP4:PGP13 PQL4:PQL13 QAH4:QAH13 QKD4:QKD13 QTZ4:QTZ13 RDV4:RDV13 RNR4:RNR13 RXN4:RXN13 SHJ4:SHJ13 SRF4:SRF13 TBB4:TBB13 TKX4:TKX13 TUT4:TUT13 UEP4:UEP13 UOL4:UOL13 UYH4:UYH13 VID4:VID13 VRZ4:VRZ13 WBV4:WBV13 WLR4:WLR13 WVN4:WVN13">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_磐石组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -234,6 +234,10 @@
   </si>
   <si>
     <t>测试环境</t>
+  </si>
+  <si>
+    <t>生产环境AppID、AppSecret需要运维配置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -595,18 +599,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -641,6 +633,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5148,25 +5152,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="7" style="48" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="48" customWidth="1"/>
-    <col min="5" max="5" width="35" style="48" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="7" style="44" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="44" customWidth="1"/>
+    <col min="5" max="5" width="35" style="44" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="44" customWidth="1"/>
     <col min="8" max="8" width="25.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="49" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="45" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="9" style="49" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="9" style="45" customWidth="1"/>
+    <col min="13" max="13" width="29.625" customWidth="1"/>
     <col min="257" max="257" width="3.875" customWidth="1"/>
     <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
@@ -5989,251 +5993,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="42" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-    </row>
-    <row r="9" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-    </row>
-    <row r="10" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-    </row>
-    <row r="11" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-    </row>
-    <row r="12" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-    </row>
-    <row r="13" spans="1:13" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="M4" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_磐石组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -129,75 +129,119 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-400电话导出优化
-BS系统所有查询切换到从库
-签约单列表查询优化</t>
+    <t>BS优化</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS功能新增、变更</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置汇总</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>项目组</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>配置所属系统</t>
+  </si>
+  <si>
+    <t>配置文件名</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>配置的详细内容</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>开发人</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>技术经理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
+sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇伙伴微信公众号
+(AppID、AppSecret需要运维配置)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
+  <si>
+    <t>生产环境AppID、AppSecret需要运维配置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>注销租客账号功能
 BS预约单、预定单增加项目
 分散式&amp;集中公寓-公寓详情-中增加日志tab
 BS分散式公寓，集中式房间增加描述的需求
-房东录入时候要判断伙伴账号、联系人手机号不能重复</t>
+房东录入时候要判断伙伴账号、联系人手机号不能重复
+城市列表详情页 编辑商圈时需同步更新商圈下的小区
+微信公众号配置</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>BS优化</t>
+    <t xml:space="preserve">
+400电话导出优化
+BS系统所有查询切换到从库
+签约单列表查询优化
+拓展日报需求变更及优化
+房源管理 公寓图片审核时，无法审核整租房源图片的问题</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>BS功能新增、变更</t>
+    <t>张浩、傅其亮、钱文博</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>张浩、傅其亮</t>
+    <t>张浩、傅其亮、钱文博</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置汇总</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>项目组</t>
-  </si>
-  <si>
-    <t>版本号</t>
-  </si>
-  <si>
-    <t>配置所属系统</t>
-  </si>
-  <si>
-    <t>配置文件名</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>配置的详细内容</t>
-  </si>
-  <si>
-    <t>用途</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>开发人</t>
-  </si>
-  <si>
-    <t>责任人</t>
-  </si>
-  <si>
-    <t>技术经理</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5.0.2</t>
@@ -205,39 +249,38 @@
   </si>
   <si>
     <t>新增</t>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.driverClassName_repo=com.mysql.jdbc.Driver
+jdbc.url_repo=jdbc\:mysql\://192.168.12.188\:3306/mogo_dev?useUnicode\=true&amp;amp;characterEncoding\=UTF-8
+jdbc.username_repo=EC985EB3E9D6A6CCBB537518ECDCD57C
+jdbc.password_repo=DDA989A60555874C2D40B52948A38959</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs添加报表查询专用数据源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>王岩</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>张浩</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysconfig.weixin.weixinhuoBanAppID=wx730bca9476310d91
-sysconfig.weixin.weixinhuoBanAppSecret=d4624c36b6795d1d99dcf0547af5443d</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇伙伴微信公众号
-(AppID、AppSecret需要运维配置)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试环境</t>
-  </si>
-  <si>
-    <t>生产环境AppID、AppSecret需要运维配置</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库相关配置值需要各环境指定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -332,6 +375,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -496,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +690,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1030,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1117,12 +1167,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="31" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="31" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>30</v>
@@ -1140,11 +1190,11 @@
         <v>26</v>
       </c>
       <c r="H2" s="16">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>28</v>
@@ -1157,7 +1207,7 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
       <c r="S2" s="33" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="T2" s="30"/>
     </row>
@@ -1166,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>30</v>
@@ -1184,11 +1234,11 @@
         <v>26</v>
       </c>
       <c r="H3" s="16">
-        <v>42625</v>
+        <v>42634</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>31</v>
@@ -1201,7 +1251,7 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="33" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="T3" s="29"/>
     </row>
@@ -5152,8 +5202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5994,7 +6044,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -6026,40 +6076,40 @@
     </row>
     <row r="3" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="G3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="H3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="L3" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>50</v>
       </c>
       <c r="M3" s="37" t="s">
         <v>17</v>
@@ -6073,53 +6123,77 @@
         <v>28</v>
       </c>
       <c r="C4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="K4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" s="38" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="42"/>
+      <c r="B5" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="39"/>
@@ -6253,7 +6327,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE1:JE1048576 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 I1:I3 I5:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 F4:F13 JB4:JB13 SX4:SX13 ACT4:ACT13 AMP4:AMP13 AWL4:AWL13 BGH4:BGH13 BQD4:BQD13 BZZ4:BZZ13 CJV4:CJV13 CTR4:CTR13 DDN4:DDN13 DNJ4:DNJ13 DXF4:DXF13 EHB4:EHB13 EQX4:EQX13 FAT4:FAT13 FKP4:FKP13 FUL4:FUL13 GEH4:GEH13 GOD4:GOD13 GXZ4:GXZ13 HHV4:HHV13 HRR4:HRR13 IBN4:IBN13 ILJ4:ILJ13 IVF4:IVF13 JFB4:JFB13 JOX4:JOX13 JYT4:JYT13 KIP4:KIP13 KSL4:KSL13 LCH4:LCH13 LMD4:LMD13 LVZ4:LVZ13 MFV4:MFV13 MPR4:MPR13 MZN4:MZN13 NJJ4:NJJ13 NTF4:NTF13 ODB4:ODB13 OMX4:OMX13 OWT4:OWT13 PGP4:PGP13 PQL4:PQL13 QAH4:QAH13 QKD4:QKD13 QTZ4:QTZ13 RDV4:RDV13 RNR4:RNR13 RXN4:RXN13 SHJ4:SHJ13 SRF4:SRF13 TBB4:TBB13 TKX4:TKX13 TUT4:TUT13 UEP4:UEP13 UOL4:UOL13 UYH4:UYH13 VID4:VID13 VRZ4:VRZ13 WBV4:WBV13 WLR4:WLR13 WVN4:WVN13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN983041:WVN983053 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN4:WVN13 JB4:JB13 SX4:SX13 ACT4:ACT13 AMP4:AMP13 AWL4:AWL13 BGH4:BGH13 BQD4:BQD13 BZZ4:BZZ13 CJV4:CJV13 CTR4:CTR13 DDN4:DDN13 DNJ4:DNJ13 DXF4:DXF13 EHB4:EHB13 EQX4:EQX13 FAT4:FAT13 FKP4:FKP13 FUL4:FUL13 GEH4:GEH13 GOD4:GOD13 GXZ4:GXZ13 HHV4:HHV13 HRR4:HRR13 IBN4:IBN13 ILJ4:ILJ13 IVF4:IVF13 JFB4:JFB13 JOX4:JOX13 JYT4:JYT13 KIP4:KIP13 KSL4:KSL13 LCH4:LCH13 LMD4:LMD13 LVZ4:LVZ13 MFV4:MFV13 MPR4:MPR13 MZN4:MZN13 NJJ4:NJJ13 NTF4:NTF13 ODB4:ODB13 OMX4:OMX13 OWT4:OWT13 PGP4:PGP13 PQL4:PQL13 QAH4:QAH13 QKD4:QKD13 QTZ4:QTZ13 RDV4:RDV13 RNR4:RNR13 RXN4:RXN13 SHJ4:SHJ13 SRF4:SRF13 TBB4:TBB13 TKX4:TKX13 TUT4:TUT13 UEP4:UEP13 UOL4:UOL13 UYH4:UYH13 VID4:VID13 VRZ4:VRZ13 WBV4:WBV13 WLR4:WLR13 F4:F13">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_磐石组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -280,6 +280,34 @@
   </si>
   <si>
     <t>jdbc.properties</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>貔貅优化（退房账单收款、两列表优化）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳、蔡银军、孙苏文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>貔貅Bug修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -679,6 +707,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,12 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1080,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T183"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1175,7 +1203,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>27</v>
@@ -1257,17 +1285,37 @@
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16">
+        <v>42629</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="16">
+        <v>42634</v>
+      </c>
       <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="J4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
       <c r="O4" s="24"/>
@@ -1279,17 +1327,37 @@
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="16">
+        <v>42630</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="16">
+        <v>42635</v>
+      </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
       <c r="O5" s="24"/>
@@ -5202,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -6043,36 +6111,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
@@ -6158,40 +6226,40 @@
     </row>
     <row r="5" spans="1:13" s="38" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="47" t="s">
         <v>68</v>
       </c>
     </row>
